--- a/Test/MC_Ssf/T1/Sensors_data_1000028.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000028.xlsx
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9786595431207906</v>
+        <v>0.9364968257461627</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0008903037528870631</v>
+        <v>0.002649292593801637</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0002549779412148734</v>
+        <v>0.003250565164377661</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.177736742982824</v>
+        <v>0.7344358145520743</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07095665988087392</v>
+        <v>0.008652812441213612</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5008741093956666</v>
+        <v>0.2332636829470162</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.5903419641112655</v>
+        <v>-0.425219667200742</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05623345122418849</v>
+        <v>0.05039483485180793</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998405672194133</v>
+        <v>0.9932903562915532</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
